--- a/GEV.xlsx
+++ b/GEV.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShrirangP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShrirangP\Documents\GitHub\ISPS2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31BCEC37-79FE-4405-B30B-7FB7544C0967}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7105CDE-C8BD-49AA-BE49-37E08461DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8838C9BE-8A84-4600-BD78-9EF4E0424EE0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>Parameter Estimates</t>
   </si>
@@ -183,6 +183,171 @@
   </si>
   <si>
     <t>NNLH</t>
+  </si>
+  <si>
+    <t>SE(ξ)</t>
+  </si>
+  <si>
+    <t>SE(μ)</t>
+  </si>
+  <si>
+    <t>SE(σ)</t>
+  </si>
+  <si>
+    <r>
+      <t>SE(μ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SE(μ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SE(μ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SE(σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SE(σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SE(σ</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -236,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -245,9 +410,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -593,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89BE48E3-A14A-4842-88F9-68E3333B7EED}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,7 +775,7 @@
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -645,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -677,375 +839,476 @@
         <v>0.10557610000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9.9418240000000005E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.1002574</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.10634468</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B4" s="2">
         <v>298.98471569999998</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3">
         <v>298.4008</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="E4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="3">
         <v>297.90339999999998</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>6.1973121899999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.2862675799999996</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B6" s="2">
         <v>46.204065</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C6" s="2">
         <v>45.854040400000002</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3">
         <v>46.023299999999999</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="G6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.7728379099999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.7387058</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2">
         <v>288.84678810000003</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3">
         <v>284.6943</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F8" s="3">
         <v>292.24020000000002</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="G8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="1">
         <v>284.24439999999998</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I8" s="2">
         <v>287.68770000000001</v>
       </c>
-      <c r="J5" s="1">
+      <c r="J8" s="1">
         <v>281.10359999999997</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10.611038000000001</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2">
         <v>0.28595480000000001</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3">
         <v>0.42303439999999998</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F10" s="3">
         <v>4.480539E-2</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="1">
+      <c r="G10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="1">
         <v>0.41933199999999998</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I10" s="2">
         <v>0.12375559999999999</v>
       </c>
-      <c r="J6" s="1">
+      <c r="J10" s="1">
         <v>0.72101009999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.24498110000000001</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="3">
         <v>3.1126349999999999E-3</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2">
+      <c r="G12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="2">
         <v>4.3416660000000001E-3</v>
       </c>
-      <c r="J7" s="1">
+      <c r="J12" s="1">
         <v>-4.3166660000000003E-3</v>
       </c>
-      <c r="M7" s="6"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="3">
         <v>40.865000000000002</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E14" s="3">
         <v>36.328519999999997</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="3">
         <v>35.160600000000002</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H14" s="1">
         <v>28.989360000000001</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I14" s="2">
         <v>35.9377</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J14" s="1">
         <v>27.90202</v>
       </c>
-      <c r="L8" s="6"/>
-      <c r="N8" s="6"/>
-    </row>
-    <row r="9" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="L14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="L15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="3">
         <v>1.0035000000000001</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E16" s="3">
         <v>1.0065</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F16" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="3">
         <v>1.10623</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H16" s="1">
         <v>1.0230790000000001</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I16" s="2">
         <v>1.0066409999999999</v>
       </c>
-      <c r="J9" s="1">
+      <c r="J16" s="1">
         <v>1.0264519999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="3">
         <v>0.99980000000000002</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H18" s="1">
         <v>0.99978100000000003</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J10" s="1">
+      <c r="I18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J18" s="1">
         <v>0.99973440000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B20" s="2">
         <v>400.19690000000003</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C20" s="2">
         <v>399.5154</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D20" s="2">
         <v>399.97480000000002</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E20" s="2">
         <v>398.75749999999999</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F20" s="2">
         <v>399.49209999999999</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G20" s="2">
         <v>399.60739999999998</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H20" s="1">
         <v>398.21480000000003</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I20" s="2">
         <v>398.69729999999998</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J20" s="1">
         <v>398.17169999999999</v>
       </c>
-      <c r="N11" s="6"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B21" s="2">
         <v>806.39369999999997</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C21" s="2">
         <v>807.03089999999997</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D21" s="2">
         <v>807.94960000000003</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E21" s="2">
         <v>807.51499999999999</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F21" s="2">
         <v>808.98419999999999</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G21" s="2">
         <v>809.21479999999997</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H21" s="1">
         <v>808.42960000000005</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I21" s="2">
         <v>809.39449999999999</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J21" s="1">
         <v>810.34339999999997</v>
       </c>
-      <c r="M12" s="6"/>
-      <c r="N12" s="6"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B22" s="2">
         <v>813.26509999999996</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C22" s="2">
         <v>816.19269999999995</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D22" s="2">
         <v>817.11149999999998</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E22" s="2">
         <v>818.96730000000002</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F22" s="2">
         <v>820.43650000000002</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G22" s="2">
         <v>820.6671</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H22" s="1">
         <v>822.17240000000004</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I22" s="2">
         <v>823.13729999999998</v>
       </c>
-      <c r="J13" s="1">
+      <c r="J22" s="1">
         <v>826.37660000000005</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="6"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="L16" s="6"/>
-    </row>
-    <row r="17" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="O17" s="6"/>
-    </row>
-    <row r="22" spans="15:16" x14ac:dyDescent="0.3">
-      <c r="P22" s="6"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="5"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L25" s="5"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O26" s="5"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="P31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GEV.xlsx
+++ b/GEV.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShrirangP\Documents\GitHub\ISPS2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ISPS2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7105CDE-C8BD-49AA-BE49-37E08461DCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8086F3FD-12FF-472E-BBED-3DD7D426D7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8838C9BE-8A84-4600-BD78-9EF4E0424EE0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8838C9BE-8A84-4600-BD78-9EF4E0424EE0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -354,7 +354,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +380,17 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -403,12 +414,6 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,7 +423,13 @@
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -758,559 +769,606 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5546875" customWidth="1"/>
+    <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="4">
         <v>0.1235102</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="4">
         <v>0.119019</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="5">
         <v>9.7939100000000001E-2</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="5">
         <v>8.6866159999999998E-2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="5">
         <v>0.1225701</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="5">
         <v>0.1157661</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2" s="4">
         <v>0.10384980000000001</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="4">
         <v>9.56756E-2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="J2" s="4">
         <v>0.10557610000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="4">
         <v>9.9418240000000005E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="4">
         <v>0.1002574</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>0.10634468</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="4">
         <v>298.98471569999998</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="3">
+      <c r="C4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="5">
         <v>298.4008</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="E4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="5">
         <v>297.90339999999998</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="4">
         <v>6.1973121899999999</v>
       </c>
-      <c r="D5" s="1">
+      <c r="C5" s="5"/>
+      <c r="D5" s="4">
         <v>6.2862675799999996</v>
       </c>
-      <c r="H5" s="3"/>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="4">
         <v>46.204065</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>45.854040400000002</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="5">
         <v>46.023299999999999</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="G6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="4">
         <v>4.7728379099999998</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>4.7387058</v>
       </c>
-      <c r="H7" s="3"/>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="4">
         <v>288.84678810000003</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5">
         <v>284.6943</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="5">
         <v>292.24020000000002</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="G8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4">
         <v>284.24439999999998</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="4">
         <v>287.68770000000001</v>
       </c>
-      <c r="J8" s="1">
+      <c r="J8" s="4">
         <v>281.10359999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="1">
+      <c r="B9" s="5"/>
+      <c r="C9" s="4">
         <v>10.611038000000001</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="4">
         <v>0.28595480000000001</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="3">
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="5">
         <v>0.42303439999999998</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="5">
         <v>4.480539E-2</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H10" s="1">
+      <c r="G10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="4">
         <v>0.41933199999999998</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="4">
         <v>0.12375559999999999</v>
       </c>
-      <c r="J10" s="1">
+      <c r="J10" s="4">
         <v>0.72101009999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="1">
+      <c r="B11" s="5"/>
+      <c r="C11" s="4">
         <v>0.24498110000000001</v>
       </c>
-      <c r="H11" s="1"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="B12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5">
         <v>3.1126349999999999E-3</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="G12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="4">
         <v>4.3416660000000001E-3</v>
       </c>
-      <c r="J12" s="1">
+      <c r="J12" s="4">
         <v>-4.3166660000000003E-3</v>
       </c>
-      <c r="M12" s="5"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="1"/>
-      <c r="M13" s="5"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="3">
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="5">
         <v>40.865000000000002</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="5">
         <v>36.328519999999997</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G14" s="5">
         <v>35.160600000000002</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H14" s="4">
         <v>28.989360000000001</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="4">
         <v>35.9377</v>
       </c>
-      <c r="J14" s="1">
+      <c r="J14" s="4">
         <v>27.90202</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="N14" s="5"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="L14" s="3"/>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="1"/>
-      <c r="L15" s="5"/>
-      <c r="N15" s="5"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="3"/>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="3">
+      <c r="B16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="5">
         <v>1.0035000000000001</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="5">
         <v>1.0065</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5">
         <v>1.10623</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H16" s="4">
         <v>1.0230790000000001</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="4">
         <v>1.0066409999999999</v>
       </c>
-      <c r="J16" s="1">
+      <c r="J16" s="4">
         <v>1.0264519999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A18" s="3" t="s">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="B18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18" s="5">
         <v>0.99980000000000002</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="4">
         <v>0.99978100000000003</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="4">
         <v>0.99973440000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="1"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="4"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="4">
         <v>400.19690000000003</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="4">
         <v>399.5154</v>
       </c>
-      <c r="D20" s="2">
+      <c r="D20" s="4">
         <v>399.97480000000002</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="4">
         <v>398.75749999999999</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="4">
         <v>399.49209999999999</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="4">
         <v>399.60739999999998</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H20" s="4">
         <v>398.21480000000003</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="4">
         <v>398.69729999999998</v>
       </c>
-      <c r="J20" s="1">
+      <c r="J20" s="4">
         <v>398.17169999999999</v>
       </c>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="4">
         <v>806.39369999999997</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="4">
         <v>807.03089999999997</v>
       </c>
-      <c r="D21" s="2">
+      <c r="D21" s="4">
         <v>807.94960000000003</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="4">
         <v>807.51499999999999</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="4">
         <v>808.98419999999999</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="4">
         <v>809.21479999999997</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H21" s="4">
         <v>808.42960000000005</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="4">
         <v>809.39449999999999</v>
       </c>
-      <c r="J21" s="1">
+      <c r="J21" s="4">
         <v>810.34339999999997</v>
       </c>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="4">
         <v>813.26509999999996</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="4">
         <v>816.19269999999995</v>
       </c>
-      <c r="D22" s="2">
+      <c r="D22" s="4">
         <v>817.11149999999998</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="4">
         <v>818.96730000000002</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="4">
         <v>820.43650000000002</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="4">
         <v>820.6671</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H22" s="4">
         <v>822.17240000000004</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="4">
         <v>823.13729999999998</v>
       </c>
-      <c r="J22" s="1">
+      <c r="J22" s="4">
         <v>826.37660000000005</v>
       </c>
-      <c r="M22" s="5"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="5"/>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L25" s="5"/>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="O26" s="5"/>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="P31" s="5"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/GEV.xlsx
+++ b/GEV.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ISPS2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShrirangP\Documents\GitHub\ISPS2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8086F3FD-12FF-472E-BBED-3DD7D426D7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9D6CC8-74CD-477E-B99E-469D3332A293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8838C9BE-8A84-4600-BD78-9EF4E0424EE0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8838C9BE-8A84-4600-BD78-9EF4E0424EE0}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="GEV" sheetId="1" r:id="rId1"/>
+    <sheet name="GPD" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="35">
   <si>
     <t>Parameter Estimates</t>
   </si>
@@ -348,6 +349,15 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>GP1</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>NSGP1</t>
   </si>
 </sst>
 </file>
@@ -769,10 +779,10 @@
   <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
@@ -782,11 +792,11 @@
     <col min="7" max="7" width="10" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5546875" customWidth="1"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -818,70 +828,82 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4">
-        <v>0.1235102</v>
+        <v>0.34160000000000001</v>
       </c>
       <c r="C2" s="4">
-        <v>0.119019</v>
+        <v>0.30525999999999998</v>
       </c>
       <c r="D2" s="5">
-        <v>9.7939100000000001E-2</v>
+        <v>0.32813999999999999</v>
       </c>
       <c r="E2" s="5">
-        <v>8.6866159999999998E-2</v>
+        <v>0.31872</v>
       </c>
       <c r="F2" s="5">
-        <v>0.1225701</v>
+        <v>0.29871999999999999</v>
       </c>
       <c r="G2" s="5">
-        <v>0.1157661</v>
+        <v>0.39269999999999999</v>
       </c>
       <c r="H2" s="4">
-        <v>0.10384980000000001</v>
+        <v>0.31833499999999998</v>
       </c>
       <c r="I2" s="4">
-        <v>9.56756E-2</v>
+        <v>0.33250000000000002</v>
       </c>
       <c r="J2" s="4">
-        <v>0.10557610000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.36243999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="4">
-        <v>9.9418240000000005E-2</v>
+        <v>0.12509999999999999</v>
       </c>
       <c r="C3" s="4">
-        <v>0.1002574</v>
+        <v>0.1196</v>
       </c>
       <c r="D3" s="4">
-        <v>0.10634468</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.12534999999999999</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.12831999999999999</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.1192</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4">
-        <v>298.98471569999998</v>
+        <v>60.21</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="5">
-        <v>298.4008</v>
+        <v>59.634700000000002</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>21</v>
@@ -890,7 +912,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="5">
-        <v>297.90339999999998</v>
+        <v>59.673999999999999</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>21</v>
@@ -902,33 +924,47 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B5" s="4">
-        <v>6.1973121899999999</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>3.194</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="D5" s="4">
-        <v>6.2862675799999996</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>3.2942</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="4">
-        <v>46.204065</v>
+        <v>23.056899999999999</v>
       </c>
       <c r="C6" s="4">
-        <v>45.854040400000002</v>
+        <v>23.145499999999998</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>21</v>
@@ -937,7 +973,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="5">
-        <v>46.023299999999999</v>
+        <v>23.2087</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>21</v>
@@ -952,25 +988,39 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B7" s="4">
-        <v>4.7728379099999998</v>
+        <v>2.7690999999999999</v>
       </c>
       <c r="C7" s="4">
-        <v>4.7387058</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-    </row>
-    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>2.7046999999999999</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.7837999999999998</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -978,47 +1028,63 @@
         <v>21</v>
       </c>
       <c r="C8" s="4">
-        <v>288.84678810000003</v>
+        <v>54.982900000000001</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="5">
-        <v>284.6943</v>
+        <v>50.0608</v>
       </c>
       <c r="F8" s="5">
-        <v>292.24020000000002</v>
+        <v>57.436799999999998</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H8" s="4">
-        <v>284.24439999999998</v>
+        <v>50.044699999999999</v>
       </c>
       <c r="I8" s="4">
-        <v>287.68770000000001</v>
+        <v>56.92</v>
       </c>
       <c r="J8" s="4">
-        <v>281.10359999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>59.1997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C9" s="4">
-        <v>10.611038000000001</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>4.7530000000000001</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5.08</v>
+      </c>
+      <c r="F9" s="5">
+        <v>8.5104000000000006</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5.8962000000000003</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1026,47 +1092,63 @@
         <v>21</v>
       </c>
       <c r="C10" s="4">
-        <v>0.28595480000000001</v>
+        <v>0.16420000000000001</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="E10" s="5">
-        <v>0.42303439999999998</v>
+        <v>0.2949</v>
       </c>
       <c r="F10" s="5">
-        <v>4.480539E-2</v>
+        <v>5.0600000000000003E-3</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H10" s="4">
-        <v>0.41933199999999998</v>
+        <v>0.29525000000000001</v>
       </c>
       <c r="I10" s="4">
-        <v>0.12375559999999999</v>
+        <v>-0.36007</v>
       </c>
       <c r="J10" s="4">
-        <v>0.72101009999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>-0.63090000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="C11" s="4">
-        <v>0.24498110000000001</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+        <v>0.1171</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.13833000000000001</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0.45960000000000001</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.43609999999999999</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
@@ -1083,7 +1165,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="5">
-        <v>3.1126349999999999E-3</v>
+        <v>1.964E-3</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>21</v>
@@ -1092,29 +1174,47 @@
         <v>21</v>
       </c>
       <c r="I12" s="4">
-        <v>4.3416660000000001E-3</v>
+        <v>9.7800000000000005E-3</v>
       </c>
       <c r="J12" s="4">
-        <v>-4.3166660000000003E-3</v>
+        <v>1.41E-2</v>
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="5">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="4">
+        <v>6.7099999999999998E-3</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="M13" s="3"/>
     </row>
-    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1124,47 +1224,74 @@
       <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="5">
-        <v>40.865000000000002</v>
+      <c r="D14" s="1">
+        <f>EXP(3.0249)</f>
+        <v>20.591945413691505</v>
       </c>
       <c r="E14" s="5">
-        <v>36.328519999999997</v>
+        <f>EXP(2.8048)</f>
+        <v>16.52377082140093</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G14" s="5">
-        <v>35.160600000000002</v>
+        <f>EXP(2.945)</f>
+        <v>19.010662386468439</v>
       </c>
       <c r="H14" s="4">
-        <v>28.989360000000001</v>
+        <f>EXP(2.809)</f>
+        <v>16.593316602759398</v>
       </c>
       <c r="I14" s="4">
-        <v>35.9377</v>
+        <f>EXP(2.59711)</f>
+        <v>13.424884003199214</v>
       </c>
       <c r="J14" s="4">
-        <v>27.90202</v>
+        <f>EXP(2.8154)</f>
+        <v>16.699854386275586</v>
       </c>
       <c r="L14" s="3"/>
       <c r="N14" s="3"/>
     </row>
-    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="B15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4">
+        <f>EXP(0.227)</f>
+        <v>1.2548298679402794</v>
+      </c>
+      <c r="E15" s="5">
+        <f>EXP(0.222)</f>
+        <v>1.2485713778642835</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="4">
+        <f>EXP(0.2861)</f>
+        <v>1.331225571153501</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="N15" s="3"/>
     </row>
-    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1175,42 +1302,69 @@
         <v>21</v>
       </c>
       <c r="D16" s="5">
-        <v>1.0035000000000001</v>
+        <f>EXP(0.0029)</f>
+        <v>1.002904209067782</v>
       </c>
       <c r="E16" s="5">
-        <v>1.0065</v>
+        <f>EXP(0.00835)</f>
+        <v>1.0083849584833691</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="5">
-        <v>1.10623</v>
+        <f>EXP(0.00857)</f>
+        <v>1.008606827578941</v>
       </c>
       <c r="H16" s="4">
-        <v>1.0230790000000001</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1.0066409999999999</v>
+        <f>EXP(0.00818)</f>
+        <v>1.0082135476107639</v>
+      </c>
+      <c r="I16">
+        <f>EXP(0.01336)</f>
+        <v>1.0134496435678366</v>
       </c>
       <c r="J16" s="4">
-        <v>1.0264519999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+        <f>EXP(-0.005)</f>
+        <v>0.99501247919268232</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+      <c r="B17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="5">
+        <f>EXP(0.0051)</f>
+        <v>1.005113027136717</v>
+      </c>
+      <c r="E17" s="5">
+        <f>EXP(0.00487)</f>
+        <v>1.0048818777236772</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="4">
+        <f>EXP(0.0065)</f>
+        <v>1.0065211708453077</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1230,145 +1384,353 @@
         <v>21</v>
       </c>
       <c r="G18" s="5">
-        <v>0.99980000000000002</v>
+        <f>EXP(-0.0000714)</f>
+        <v>0.99992860254891935</v>
       </c>
       <c r="H18" s="4">
-        <v>0.99978100000000003</v>
+        <f>EXP(0.0000013)</f>
+        <v>1.000001300000845</v>
       </c>
       <c r="I18" s="6" t="s">
         <v>21</v>
       </c>
       <c r="J18" s="4">
-        <v>0.99973440000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="18" x14ac:dyDescent="0.35">
+        <f>EXP(0.000249)</f>
+        <v>1.0002490310030732</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="4">
-        <v>400.19690000000003</v>
+        <v>358.35899999999998</v>
       </c>
       <c r="C20" s="4">
-        <v>399.5154</v>
+        <v>357.30779999999999</v>
       </c>
       <c r="D20" s="4">
-        <v>399.97480000000002</v>
+        <v>358.18389999999999</v>
       </c>
       <c r="E20" s="4">
-        <v>398.75749999999999</v>
+        <v>355.86360000000002</v>
       </c>
       <c r="F20" s="4">
-        <v>399.49209999999999</v>
+        <v>357.24369999999999</v>
       </c>
       <c r="G20" s="4">
-        <v>399.60739999999998</v>
+        <v>358.14940000000001</v>
       </c>
       <c r="H20" s="4">
-        <v>398.21480000000003</v>
+        <v>355.8639</v>
       </c>
       <c r="I20" s="4">
-        <v>398.69729999999998</v>
+        <v>354.80180000000001</v>
       </c>
       <c r="J20" s="4">
-        <v>398.17169999999999</v>
+        <v>354.38330000000002</v>
       </c>
       <c r="N20" s="3"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="4">
-        <v>806.39369999999997</v>
+        <v>722.71799999999996</v>
       </c>
       <c r="C21" s="4">
-        <v>807.03089999999997</v>
+        <v>722.6155</v>
       </c>
       <c r="D21" s="4">
-        <v>807.94960000000003</v>
+        <v>724.36770000000001</v>
       </c>
       <c r="E21" s="4">
-        <v>807.51499999999999</v>
+        <v>721.72720000000004</v>
       </c>
       <c r="F21" s="4">
-        <v>808.98419999999999</v>
+        <v>724.48739999999998</v>
       </c>
       <c r="G21" s="4">
-        <v>809.21479999999997</v>
+        <v>726.29880000000003</v>
       </c>
       <c r="H21" s="4">
-        <v>808.42960000000005</v>
+        <v>723.72770000000003</v>
       </c>
       <c r="I21" s="4">
-        <v>809.39449999999999</v>
+        <v>721.6037</v>
       </c>
       <c r="J21" s="4">
-        <v>810.34339999999997</v>
+        <v>722.76660000000004</v>
       </c>
       <c r="M21" s="3"/>
       <c r="N21" s="3"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="4">
-        <v>813.26509999999996</v>
+        <v>729.58939999999996</v>
       </c>
       <c r="C22" s="4">
-        <v>816.19269999999995</v>
+        <v>731.77739999999994</v>
       </c>
       <c r="D22" s="4">
-        <v>817.11149999999998</v>
+        <v>733.52949999999998</v>
       </c>
       <c r="E22" s="4">
-        <v>818.96730000000002</v>
+        <v>733.17949999999996</v>
       </c>
       <c r="F22" s="4">
-        <v>820.43650000000002</v>
+        <v>735.93970000000002</v>
       </c>
       <c r="G22" s="4">
-        <v>820.6671</v>
+        <v>737.75109999999995</v>
       </c>
       <c r="H22" s="4">
-        <v>822.17240000000004</v>
+        <v>737.47050000000002</v>
       </c>
       <c r="I22" s="4">
-        <v>823.13729999999998</v>
+        <v>735.34640000000002</v>
       </c>
       <c r="J22" s="4">
-        <v>826.37660000000005</v>
+        <v>738.7998</v>
       </c>
       <c r="M22" s="3"/>
       <c r="N22" s="2"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="O26" s="3"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="P31" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AA1F631-450F-4F54-8752-A6508D610A2B}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="1">
+        <v>115.6</v>
+      </c>
+      <c r="C2" s="1">
+        <v>115.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>43.22</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.4300000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12.110099999999999</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.12590000000000001</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.22109999999999999</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1">
+        <f>EXP(2.722)</f>
+        <v>15.210713270338847</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1">
+        <f>EXP(0.0000595)</f>
+        <v>1.0000595017701601</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>161.49639999999999</v>
+      </c>
+      <c r="C13" s="1">
+        <v>160.3931</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="1">
+        <v>326.99290000000002</v>
+      </c>
+      <c r="C14" s="1">
+        <v>326.78629999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="1">
+        <v>329.98590000000002</v>
+      </c>
+      <c r="C15" s="1">
+        <v>331.2758</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>